--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41B441-D019-44F3-94F7-FA338254F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805FA12-181C-4499-9C4E-98878FE0FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805FA12-181C-4499-9C4E-98878FE0FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63B265-B8FB-4CB1-A6FF-7B1D9440E734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63B265-B8FB-4CB1-A6FF-7B1D9440E734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94C035-205E-4DA6-95FC-3C35B21FEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94C035-205E-4DA6-95FC-3C35B21FEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF71A0A-65ED-4BC6-9CB5-955E080B7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF71A0A-65ED-4BC6-9CB5-955E080B7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599D914-8FA9-4551-BBA7-BA4969365111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599D914-8FA9-4551-BBA7-BA4969365111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6612F-C944-4A0F-9C27-62C46E49B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6612F-C944-4A0F-9C27-62C46E49B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C461B7-76CF-4928-AB1D-A08C03695A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C461B7-76CF-4928-AB1D-A08C03695A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86633FFB-EA06-49B1-AA20-3A1E63294238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86633FFB-EA06-49B1-AA20-3A1E63294238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2ADB6-E4F9-4379-ACFF-FF109472DA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2ADB6-E4F9-4379-ACFF-FF109472DA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF731647-0877-470D-B21D-E2178C3F4D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ScheduleDetails" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ScheduleDetails!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ScheduleDetails!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,28 +32,12 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6E3826FE-D92F-4046-BBB5-1322D5B80302}</author>
-    <author>tc={2E7AB49A-3383-4C78-B04A-2B461413720F}</author>
     <author>tc={D8C2DBE4-5B26-4589-9E01-EFD6AD73EC58}</author>
     <author>tc={B2A0528E-5879-4D9D-89E7-A096C2DD4FC4}</author>
     <author>tc={8B02CAAE-7E09-4425-8CBE-A66D4913D2A7}</author>
     <author>tc={53B762A8-9F09-49A3-A6F6-340052E114DA}</author>
-    <author>tc={2B850A86-C40F-4383-A466-AB5CE8E78DC7}</author>
     <author>tc={62AF423E-41DE-4029-87AA-F5B6BA4AF212}</author>
-    <author>tc={35B74C5D-8579-4268-BA32-47564B2C0B37}</author>
     <author>tc={803C4DAC-D71B-446A-8AC7-C81ADABFB639}</author>
-    <author>tc={55211A71-557D-4340-A987-56FEEAA7EA6A}</author>
-    <author>tc={2B532793-FA97-4F8C-9199-0A90B5522253}</author>
-    <author>tc={431C4BDC-7146-459D-8DD2-A6CB1B0ABA41}</author>
-    <author>tc={AD9B3BA4-74E3-4C8D-82BE-3A2696571D46}</author>
-    <author>tc={500388AC-8C5F-4DFD-A9DC-2BD056C344A3}</author>
-    <author>tc={FF8FA1AE-E2B6-4F3F-8887-3E76FE82E446}</author>
-    <author>tc={C9F0CAAF-5389-4B5C-B29C-E2CD21CAC56C}</author>
-    <author>tc={FB857E3F-722B-47D7-B1B3-3E8A284358B0}</author>
-    <author>tc={50DC8834-C878-4340-B20E-28DE21A18FE5}</author>
-    <author>tc={98F0FDAE-D577-4168-A364-0E1389B1D49D}</author>
-    <author>tc={24A1BFB9-3A98-4EDA-B66B-F820385B2023}</author>
-    <author>tc={940B92F6-BAC9-455E-9954-3578A82D36FA}</author>
-    <author>tc={DAAF8D12-D77F-4237-82C3-5C8A94238270}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6E3826FE-D92F-4046-BBB5-1322D5B80302}">
@@ -65,16 +49,7 @@
 This will be used by Bot.</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{2E7AB49A-3383-4C78-B04A-2B461413720F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Indicates which part of the process. There are 3 parts for each process. 
-This will be used by Bot.</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{D8C2DBE4-5B26-4589-9E01-EFD6AD73EC58}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{D8C2DBE4-5B26-4589-9E01-EFD6AD73EC58}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +57,7 @@
     For information only</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{B2A0528E-5879-4D9D-89E7-A096C2DD4FC4}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{B2A0528E-5879-4D9D-89E7-A096C2DD4FC4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +65,7 @@
     This will be used by Bot</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{8B02CAAE-7E09-4425-8CBE-A66D4913D2A7}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{8B02CAAE-7E09-4425-8CBE-A66D4913D2A7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +73,7 @@
     This will be used by Bot</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="5" shapeId="0" xr:uid="{53B762A8-9F09-49A3-A6F6-340052E114DA}">
+    <comment ref="A2" authorId="4" shapeId="0" xr:uid="{53B762A8-9F09-49A3-A6F6-340052E114DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,15 +81,7 @@
     1 - Daily</t>
       </text>
     </comment>
-    <comment ref="B2" authorId="6" shapeId="0" xr:uid="{2B850A86-C40F-4383-A466-AB5CE8E78DC7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#1 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="7" shapeId="0" xr:uid="{62AF423E-41DE-4029-87AA-F5B6BA4AF212}">
+    <comment ref="A3" authorId="5" shapeId="0" xr:uid="{62AF423E-41DE-4029-87AA-F5B6BA4AF212}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,15 +89,7 @@
     2 - Weekly</t>
       </text>
     </comment>
-    <comment ref="B3" authorId="8" shapeId="0" xr:uid="{35B74C5D-8579-4268-BA32-47564B2C0B37}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#1 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="9" shapeId="0" xr:uid="{803C4DAC-D71B-446A-8AC7-C81ADABFB639}">
+    <comment ref="A4" authorId="6" shapeId="0" xr:uid="{803C4DAC-D71B-446A-8AC7-C81ADABFB639}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,116 +97,12 @@
     3 - Monthly</t>
       </text>
     </comment>
-    <comment ref="B4" authorId="10" shapeId="0" xr:uid="{55211A71-557D-4340-A987-56FEEAA7EA6A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#1 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="11" shapeId="0" xr:uid="{2B532793-FA97-4F8C-9199-0A90B5522253}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1 - Daily</t>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="12" shapeId="0" xr:uid="{431C4BDC-7146-459D-8DD2-A6CB1B0ABA41}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#2 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="13" shapeId="0" xr:uid="{AD9B3BA4-74E3-4C8D-82BE-3A2696571D46}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    2 - Weekly</t>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="14" shapeId="0" xr:uid="{500388AC-8C5F-4DFD-A9DC-2BD056C344A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#2 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="15" shapeId="0" xr:uid="{FF8FA1AE-E2B6-4F3F-8887-3E76FE82E446}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    3 - Monthly</t>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="16" shapeId="0" xr:uid="{C9F0CAAF-5389-4B5C-B29C-E2CD21CAC56C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#2 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="17" shapeId="0" xr:uid="{FB857E3F-722B-47D7-B1B3-3E8A284358B0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1 - Daily</t>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="18" shapeId="0" xr:uid="{50DC8834-C878-4340-B20E-28DE21A18FE5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#3 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="19" shapeId="0" xr:uid="{98F0FDAE-D577-4168-A364-0E1389B1D49D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    2 - Weekly</t>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="20" shapeId="0" xr:uid="{24A1BFB9-3A98-4EDA-B66B-F820385B2023}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#3 of each process</t>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="21" shapeId="0" xr:uid="{940B92F6-BAC9-455E-9954-3578A82D36FA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    3 - Monthly</t>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="22" shapeId="0" xr:uid="{DAAF8D12-D77F-4237-82C3-5C8A94238270}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Part#3 of each process</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -274,9 +129,6 @@
   </si>
   <si>
     <t>Monthly</t>
-  </si>
-  <si>
-    <t>Part#</t>
   </si>
   <si>
     <t>Process Running Order#</t>
@@ -391,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -461,36 +313,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -563,19 +385,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -587,7 +396,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -605,21 +414,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,31 +432,22 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -966,72 +760,23 @@
     <text>Indicates what frequency
 This will be used by Bot.</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2022-12-23T04:54:11.31" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{2E7AB49A-3383-4C78-B04A-2B461413720F}">
-    <text>Indicates which part of the process. There are 3 parts for each process. 
-This will be used by Bot.</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2022-12-23T10:12:27.61" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{D8C2DBE4-5B26-4589-9E01-EFD6AD73EC58}">
+  <threadedComment ref="B1" dT="2022-12-23T10:12:27.61" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{D8C2DBE4-5B26-4589-9E01-EFD6AD73EC58}">
     <text>For information only</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2022-12-23T10:12:42.73" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{B2A0528E-5879-4D9D-89E7-A096C2DD4FC4}">
+  <threadedComment ref="C1" dT="2022-12-23T10:12:42.73" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{B2A0528E-5879-4D9D-89E7-A096C2DD4FC4}">
     <text>This will be used by Bot</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2022-12-23T17:07:08.09" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{8B02CAAE-7E09-4425-8CBE-A66D4913D2A7}">
+  <threadedComment ref="D1" dT="2022-12-23T17:07:08.09" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{8B02CAAE-7E09-4425-8CBE-A66D4913D2A7}">
     <text>This will be used by Bot</text>
   </threadedComment>
   <threadedComment ref="A2" dT="2022-12-23T04:48:47.10" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{53B762A8-9F09-49A3-A6F6-340052E114DA}">
     <text>1 - Daily</text>
   </threadedComment>
-  <threadedComment ref="B2" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{2B850A86-C40F-4383-A466-AB5CE8E78DC7}">
-    <text>Part#1 of each process</text>
-  </threadedComment>
   <threadedComment ref="A3" dT="2022-12-23T04:49:19.89" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{62AF423E-41DE-4029-87AA-F5B6BA4AF212}">
     <text>2 - Weekly</text>
   </threadedComment>
-  <threadedComment ref="B3" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{35B74C5D-8579-4268-BA32-47564B2C0B37}">
-    <text>Part#1 of each process</text>
-  </threadedComment>
   <threadedComment ref="A4" dT="2022-12-23T04:49:44.59" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{803C4DAC-D71B-446A-8AC7-C81ADABFB639}">
     <text>3 - Monthly</text>
-  </threadedComment>
-  <threadedComment ref="B4" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{55211A71-557D-4340-A987-56FEEAA7EA6A}">
-    <text>Part#1 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2022-12-23T04:48:47.10" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{2B532793-FA97-4F8C-9199-0A90B5522253}">
-    <text>1 - Daily</text>
-  </threadedComment>
-  <threadedComment ref="B5" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{431C4BDC-7146-459D-8DD2-A6CB1B0ABA41}">
-    <text>Part#2 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2022-12-23T04:49:19.89" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{AD9B3BA4-74E3-4C8D-82BE-3A2696571D46}">
-    <text>2 - Weekly</text>
-  </threadedComment>
-  <threadedComment ref="B6" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{500388AC-8C5F-4DFD-A9DC-2BD056C344A3}">
-    <text>Part#2 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A7" dT="2022-12-23T04:49:44.59" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{FF8FA1AE-E2B6-4F3F-8887-3E76FE82E446}">
-    <text>3 - Monthly</text>
-  </threadedComment>
-  <threadedComment ref="B7" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{C9F0CAAF-5389-4B5C-B29C-E2CD21CAC56C}">
-    <text>Part#2 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A8" dT="2022-12-23T04:48:47.10" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{FB857E3F-722B-47D7-B1B3-3E8A284358B0}">
-    <text>1 - Daily</text>
-  </threadedComment>
-  <threadedComment ref="B8" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{50DC8834-C878-4340-B20E-28DE21A18FE5}">
-    <text>Part#3 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A9" dT="2022-12-23T04:49:19.89" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{98F0FDAE-D577-4168-A364-0E1389B1D49D}">
-    <text>2 - Weekly</text>
-  </threadedComment>
-  <threadedComment ref="B9" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{24A1BFB9-3A98-4EDA-B66B-F820385B2023}">
-    <text>Part#3 of each process</text>
-  </threadedComment>
-  <threadedComment ref="A10" dT="2022-12-23T04:49:44.59" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{940B92F6-BAC9-455E-9954-3578A82D36FA}">
-    <text>3 - Monthly</text>
-  </threadedComment>
-  <threadedComment ref="B10" dT="2022-12-23T04:45:55.45" personId="{0954E027-FFB1-4BDC-8FDF-A9840DC7D4D4}" id="{DAAF8D12-D77F-4237-82C3-5C8A94238270}">
-    <text>Part#3 of each process</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1118,196 +863,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F51B5A-3586-4018-AAB6-7D01735D99B6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="21">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="16">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="22">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E10" xr:uid="{58F51B5A-3586-4018-AAB6-7D01735D99B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
-    <sortCondition ref="B2:B10"/>
-    <sortCondition ref="D2:D10"/>
+  <autoFilter ref="A1:D10" xr:uid="{58F51B5A-3586-4018-AAB6-7D01735D99B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1319,7 +948,7 @@
           <x14:formula1>
             <xm:f>Dropdown_Value!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E10</xm:sqref>
+          <xm:sqref>D1:D4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF731647-0877-470D-B21D-E2178C3F4D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB289B-377D-4FCB-9650-18EC58080FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB289B-377D-4FCB-9650-18EC58080FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57583870-C318-483B-8CC5-26D8D5791739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Input/ScheduleDetails_Bot2.xlsx
+++ b/Data/Input/ScheduleDetails_Bot2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57583870-C318-483B-8CC5-26D8D5791739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB97B94-8051-4167-962D-F4A94115C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
